--- a/WebPage/Common/RptTemplet/0519Report.xlsx
+++ b/WebPage/Common/RptTemplet/0519Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EOS_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371AA7B-FBAA-4F30-84DC-E0582DDA4ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5B7FD-EB46-4CB7-B556-EEBCBC60DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="-12585" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -189,11 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -476,29 +477,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">

--- a/WebPage/Common/RptTemplet/0519Report.xlsx
+++ b/WebPage/Common/RptTemplet/0519Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5B7FD-EB46-4CB7-B556-EEBCBC60DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378E5AD-DC62-4ADC-9EC4-42F0F6D5A3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13635" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test1" sheetId="1" r:id="rId1"/>
+    <sheet name="製卡相關資料" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>卡種</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份證字號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   </si>
   <si>
     <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,73 +507,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/WebPage/Common/RptTemplet/0519Report.xlsx
+++ b/WebPage/Common/RptTemplet/0519Report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378E5AD-DC62-4ADC-9EC4-42F0F6D5A3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C72F95-27FF-4612-9A44-378A6037258D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13635" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="13632" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="製卡相關資料" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -477,35 +477,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="75.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="7.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
